--- a/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
+++ b/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
@@ -9,25 +9,18 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="船舶" sheetId="3" r:id="rId3"/>
-    <sheet name="汽車" sheetId="4" r:id="rId4"/>
-    <sheet name="航空器" sheetId="5" r:id="rId5"/>
-    <sheet name="存款" sheetId="6" r:id="rId6"/>
-    <sheet name="股票" sheetId="7" r:id="rId7"/>
-    <sheet name="債券" sheetId="8" r:id="rId8"/>
-    <sheet name="基金受益憑證" sheetId="9" r:id="rId9"/>
-    <sheet name="其他有價證券" sheetId="10" r:id="rId10"/>
-    <sheet name="保險" sheetId="11" r:id="rId11"/>
-    <sheet name="債權" sheetId="12" r:id="rId12"/>
-    <sheet name="債務" sheetId="13" r:id="rId13"/>
-    <sheet name="事業投資" sheetId="14" r:id="rId14"/>
+    <sheet name="航空器" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
+    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="119">
   <si>
     <t>土地坐落</t>
   </si>
@@ -107,39 +100,18 @@
     <t>74年2月</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>總嘴數</t>
-  </si>
-  <si>
-    <t>船籍港</t>
+    <t>型式</t>
+  </si>
+  <si>
+    <t>製造廠名稱</t>
+  </si>
+  <si>
+    <t>國轉標示及編號</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國轉標示及編號</t>
-  </si>
-  <si>
-    <t>登巧（取得)時間</t>
-  </si>
-  <si>
     <t>幣 別</t>
   </si>
   <si>
@@ -221,247 +193,190 @@
     <t>4,000，000</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>中鋼</t>
+  </si>
+  <si>
+    <t>大同</t>
+  </si>
+  <si>
+    <t>國喬</t>
+  </si>
+  <si>
+    <t>華夏</t>
+  </si>
+  <si>
+    <t>台紙</t>
+  </si>
+  <si>
+    <t>5; 560</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
     <t>名稱</t>
   </si>
   <si>
-    <t>股數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>夕卜幣幣別</t>
-  </si>
-  <si>
-    <t>中鋼</t>
-  </si>
-  <si>
-    <t>大同</t>
-  </si>
-  <si>
-    <t>國喬</t>
-  </si>
-  <si>
-    <t>華夏</t>
-  </si>
-  <si>
-    <t>台紙</t>
-  </si>
-  <si>
-    <t>5; 560</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
+    <t>受託投資機構</t>
+  </si>
+  <si>
+    <t>_單位數</t>
+  </si>
+  <si>
+    <t>票面價額(單位淨值）</t>
+  </si>
+  <si>
+    <t>外幣幣別</t>
+  </si>
+  <si>
+    <t>德利資源</t>
+  </si>
+  <si>
+    <t>保誠高科技</t>
+  </si>
+  <si>
+    <t>元大多福</t>
+  </si>
+  <si>
+    <t>元大卓越</t>
+  </si>
+  <si>
+    <t>元大亞太成長</t>
+  </si>
+  <si>
+    <t>匯膂太平洋精典</t>
+  </si>
+  <si>
+    <t>富邦精準</t>
+  </si>
+  <si>
+    <t>具萊德世界礦業</t>
+  </si>
+  <si>
+    <t>安本亞太</t>
+  </si>
+  <si>
+    <t>天達環球能</t>
+  </si>
+  <si>
+    <t>安泰台灣咼股息</t>
+  </si>
+  <si>
+    <t>富達歐洲進取</t>
+  </si>
+  <si>
+    <t>施羅德新歐</t>
+  </si>
+  <si>
+    <t>BR環球資配</t>
+  </si>
+  <si>
+    <t>BR世界礦業</t>
+  </si>
+  <si>
+    <t>世界礦業</t>
+  </si>
+  <si>
+    <t>台北富邦銀行 古亭分行</t>
+  </si>
+  <si>
+    <t>保誠證券投資 信託公司</t>
+  </si>
+  <si>
+    <t>元大證券投資 信託公司，</t>
+  </si>
+  <si>
+    <t>元大證券投資 信託公司</t>
+  </si>
+  <si>
+    <t>國泰世華銀行 古亭分行</t>
+  </si>
+  <si>
+    <t>台北富邦銀行 襄陽分行</t>
+  </si>
+  <si>
+    <t>安泰證券信託 投資公司</t>
+  </si>
+  <si>
+    <t>星辰銀行大安 分行</t>
+  </si>
+  <si>
+    <t>台北富邦銀行</t>
+  </si>
+  <si>
+    <t>5*0.81</t>
+  </si>
+  <si>
+    <t>^ 11,133</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>稱</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>人</t>
   </si>
   <si>
     <t>單位數</t>
   </si>
   <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>_單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>德利資源</t>
-  </si>
-  <si>
-    <t>保誠高科技</t>
-  </si>
-  <si>
-    <t>元大多福</t>
-  </si>
-  <si>
-    <t>元大卓越</t>
-  </si>
-  <si>
-    <t>元大亞太成長</t>
-  </si>
-  <si>
-    <t>匯膂太平洋精典</t>
-  </si>
-  <si>
-    <t>富邦精準</t>
-  </si>
-  <si>
-    <t>具萊德世界礦業</t>
-  </si>
-  <si>
-    <t>安本亞太</t>
-  </si>
-  <si>
-    <t>天達環球能</t>
-  </si>
-  <si>
-    <t>安泰台灣咼股息</t>
-  </si>
-  <si>
-    <t>富達歐洲進取</t>
-  </si>
-  <si>
-    <t>施羅德新歐</t>
-  </si>
-  <si>
-    <t>BR環球資配</t>
-  </si>
-  <si>
-    <t>BR世界礦業</t>
-  </si>
-  <si>
-    <t>世界礦業</t>
-  </si>
-  <si>
-    <t>台北富邦銀行 古亭分行</t>
-  </si>
-  <si>
-    <t>保誠證券投資 信託公司</t>
-  </si>
-  <si>
-    <t>元大證券投資 信託公司，</t>
-  </si>
-  <si>
-    <t>元大證券投資 信託公司</t>
-  </si>
-  <si>
-    <t>國泰世華銀行 古亭分行</t>
-  </si>
-  <si>
-    <t>台北富邦銀行 襄陽分行</t>
-  </si>
-  <si>
-    <t>安泰證券信託 投資公司</t>
-  </si>
-  <si>
-    <t>星辰銀行大安 分行</t>
-  </si>
-  <si>
-    <t>台北富邦銀行</t>
-  </si>
-  <si>
-    <t>5*0.81</t>
-  </si>
-  <si>
-    <t>^ 11,133</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
+    <t>(九）珠寳、古董、字畫及#</t>
+  </si>
+  <si>
+    <t>財 產種類</t>
+  </si>
+  <si>
+    <t>-他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項 /</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>m:新臺幣 元）</t>
   </si>
   <si>
     <t>價</t>
   </si>
   <si>
     <t>額</t>
-  </si>
-  <si>
-    <t>(九）珠寳、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>m:新臺幣 元）</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>債權</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>務</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>地</t>
-  </si>
-  <si>
-    <t>址</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>事業</t>
-  </si>
-  <si>
-    <t>投</t>
-  </si>
-  <si>
-    <t>資</t>
-  </si>
-  <si>
-    <t>事</t>
-  </si>
-  <si>
-    <t>業</t>
-  </si>
-  <si>
-    <t>技資</t>
-  </si>
-  <si>
-    <t>金額</t>
   </si>
 </sst>
 </file>
@@ -958,300 +873,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>124</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>125</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
@@ -1342,13 +963,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1361,17 +982,22 @@
       <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1380,95 +1006,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -1478,22 +1015,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1501,13 +1038,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -1522,13 +1059,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1543,13 +1080,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -1564,13 +1101,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -1587,13 +1124,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -1608,13 +1145,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1629,13 +1166,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -1650,13 +1187,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -1671,13 +1208,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1692,13 +1229,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1713,13 +1250,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -1734,13 +1271,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1755,13 +1292,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1776,13 +1313,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1797,20 +1334,20 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1818,13 +1355,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1839,13 +1376,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1862,40 +1399,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1907,18 +1453,27 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1930,18 +1485,27 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>4380</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1953,18 +1517,27 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>19120</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1976,18 +1549,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>4590</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1999,10 +1581,19 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>6250</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
@@ -2010,46 +1601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -2059,25 +1611,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2085,13 +1637,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>20.251</v>
@@ -2100,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2">
         <v>8341</v>
@@ -2111,13 +1663,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>13465</v>
@@ -2126,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
         <v>134650</v>
@@ -2137,13 +1689,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -2152,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
         <v>12794</v>
@@ -2163,13 +1715,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
         <v>5732.2</v>
@@ -2178,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2">
         <v>57322</v>
@@ -2189,13 +1741,13 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2">
         <v>18421.5</v>
@@ -2204,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2">
         <v>184215</v>
@@ -2215,13 +1767,13 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2">
         <v>8104.1</v>
@@ -2230,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2">
         <v>81041</v>
@@ -2241,13 +1793,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2">
         <v>5232</v>
@@ -2256,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2">
         <v>52320</v>
@@ -2267,13 +1819,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2">
         <v>35.94</v>
@@ -2282,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2">
         <v>10850</v>
@@ -2293,13 +1845,13 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2">
         <v>107.429</v>
@@ -2308,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2">
         <v>32431</v>
@@ -2319,13 +1871,13 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2">
         <v>37.408</v>
@@ -2334,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2">
         <v>15407</v>
@@ -2345,13 +1897,13 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2">
         <v>18.627</v>
@@ -2360,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2">
         <v>5623</v>
@@ -2371,13 +1923,13 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -2386,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2">
         <v>62594</v>
@@ -2397,13 +1949,13 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2">
         <v>374.46</v>
@@ -2412,7 +1964,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2">
         <v>154225</v>
@@ -2423,22 +1975,22 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2">
         <v>37401</v>
@@ -2449,13 +2001,13 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2">
         <v>15517</v>
@@ -2464,7 +2016,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2">
         <v>6391</v>
@@ -2475,13 +2027,13 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E17" s="2">
         <v>27.03</v>
@@ -2490,10 +2042,10 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2501,13 +2053,13 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2">
         <v>34.38</v>
@@ -2516,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2">
         <v>10379</v>
@@ -2527,13 +2079,13 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2">
         <v>48.131</v>
@@ -2542,7 +2094,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H19" s="2">
         <v>14530</v>
@@ -2553,13 +2105,13 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2">
         <v>42.92</v>
@@ -2568,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H20" s="2">
         <v>12960</v>
@@ -2579,13 +2131,13 @@
         <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2594,10 +2146,83 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H21" s="2">
         <v>9865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>125</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
+++ b/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
   <si>
     <t>土地坐落</t>
   </si>
@@ -211,6 +211,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -235,7 +238,10 @@
     <t>台紙</t>
   </si>
   <si>
-    <t>5; 560</t>
+    <t>5;560</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-17</t>
@@ -1401,13 +1407,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1435,13 +1441,16 @@
       <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1456,24 +1465,27 @@
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1709</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1491,21 +1503,24 @@
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1709</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1523,21 +1538,24 @@
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1709</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1555,21 +1573,24 @@
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1709</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1587,12 +1608,15 @@
         <v>6250</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1709</v>
       </c>
     </row>
@@ -1611,22 +1635,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -1637,13 +1661,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>20.251</v>
@@ -1663,13 +1687,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>13465</v>
@@ -1689,13 +1713,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1715,13 +1739,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <v>5732.2</v>
@@ -1741,13 +1765,13 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2">
         <v>18421.5</v>
@@ -1767,13 +1791,13 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>8104.1</v>
@@ -1793,13 +1817,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2">
         <v>5232</v>
@@ -1819,13 +1843,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2">
         <v>35.94</v>
@@ -1845,13 +1869,13 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2">
         <v>107.429</v>
@@ -1871,13 +1895,13 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2">
         <v>37.408</v>
@@ -1897,13 +1921,13 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2">
         <v>18.627</v>
@@ -1923,13 +1947,13 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -1949,13 +1973,13 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2">
         <v>374.46</v>
@@ -1975,16 +1999,16 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -2001,13 +2025,13 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2">
         <v>15517</v>
@@ -2027,13 +2051,13 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2">
         <v>27.03</v>
@@ -2045,7 +2069,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2053,13 +2077,13 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2">
         <v>34.38</v>
@@ -2079,13 +2103,13 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2">
         <v>48.131</v>
@@ -2105,13 +2129,13 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2">
         <v>42.92</v>
@@ -2131,13 +2155,13 @@
         <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2167,22 +2191,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2190,14 +2214,14 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2207,22 +2231,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
+++ b/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="126">
   <si>
     <t>土地坐落</t>
   </si>
@@ -214,6 +214,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -223,6 +226,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中鋼</t>
   </si>
   <si>
@@ -238,13 +247,19 @@
     <t>台紙</t>
   </si>
   <si>
-    <t>5;560</t>
+    <t>5560</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmpe28d1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1407,13 +1422,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1444,13 +1459,22 @@
       <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1465,27 +1489,36 @@
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1709</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1503,24 +1536,33 @@
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1709</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1538,24 +1580,33 @@
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1709</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1573,24 +1624,33 @@
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1709</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1608,16 +1668,25 @@
         <v>6250</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1709</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="2">
         <v>73</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1709</v>
       </c>
     </row>
   </sheetData>
@@ -1635,22 +1704,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -1661,13 +1730,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>20.251</v>
@@ -1687,13 +1756,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>13465</v>
@@ -1713,13 +1782,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1739,13 +1808,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>5732.2</v>
@@ -1765,13 +1834,13 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2">
         <v>18421.5</v>
@@ -1791,13 +1860,13 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2">
         <v>8104.1</v>
@@ -1817,13 +1886,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2">
         <v>5232</v>
@@ -1843,13 +1912,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2">
         <v>35.94</v>
@@ -1869,13 +1938,13 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2">
         <v>107.429</v>
@@ -1895,13 +1964,13 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2">
         <v>37.408</v>
@@ -1921,13 +1990,13 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2">
         <v>18.627</v>
@@ -1947,13 +2016,13 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -1973,13 +2042,13 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2">
         <v>374.46</v>
@@ -1999,16 +2068,16 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -2025,13 +2094,13 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2">
         <v>15517</v>
@@ -2051,13 +2120,13 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2">
         <v>27.03</v>
@@ -2069,7 +2138,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2077,13 +2146,13 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E18" s="2">
         <v>34.38</v>
@@ -2103,13 +2172,13 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E19" s="2">
         <v>48.131</v>
@@ -2129,13 +2198,13 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2">
         <v>42.92</v>
@@ -2155,13 +2224,13 @@
         <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2191,22 +2260,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2214,14 +2283,14 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2231,22 +2300,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
+++ b/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
@@ -20,9 +20,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="126">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="125">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段二小段08650000地號</t>
+  </si>
+  <si>
+    <t>臺南市麻豆區安業段01050000地號</t>
+  </si>
+  <si>
+    <t>36分之J</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>36分之1</t>
+  </si>
+  <si>
+    <t>陳節如</t>
+  </si>
+  <si>
+    <t>李薰楓</t>
+  </si>
+  <si>
+    <t>89年9月</t>
+  </si>
+  <si>
+    <t>45年11月</t>
+  </si>
+  <si>
+    <t>74年1月</t>
+  </si>
+  <si>
+    <t>(購買）</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmpe28d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,55 +136,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段二小段 0865-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市麻豆區安業段0105-0000 地號</t>
-  </si>
-  <si>
-    <t>36分之J</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>36分之1</t>
-  </si>
-  <si>
-    <t>陳節如</t>
-  </si>
-  <si>
-    <t>李薰楓</t>
-  </si>
-  <si>
-    <t>89年9月</t>
-  </si>
-  <si>
-    <t>45年11月</t>
-  </si>
-  <si>
-    <t>74年1月</t>
-  </si>
-  <si>
-    <t>(購買）</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>權利範，圍（持分）</t>
-  </si>
-  <si>
-    <t>登記（'取得）原因</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段二小段 08827-000 建號</t>
+    <t>臺北市大安區龍泉段二小段08827000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -112,10 +157,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣 總 額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -127,22 +172,16 @@
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>新臺幣總額或折合新臺幣總瀨</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司師 大郵局</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行襄陽分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行古亭分 行</t>
+    <t>中華郵政股份有限公司師大郵局</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行襄陽分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行古亭分行</t>
   </si>
   <si>
     <t>臺灣銀行和平分行</t>
@@ -154,10 +193,10 @@
     <t>星辰商業銀行大安分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行古亭分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永 頁分行</t>
+    <t>國泰世華商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永頁分行</t>
   </si>
   <si>
     <t>臺灣土地銀行古亭分行</t>
@@ -166,7 +205,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行仁愛分 行</t>
+    <t>台北富邦商業銀行仁愛分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -190,13 +229,7 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>4,000，000</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>4000000</t>
   </si>
   <si>
     <t>quantity</t>
@@ -211,27 +244,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中鋼</t>
   </si>
   <si>
@@ -253,22 +265,13 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-17</t>
-  </si>
-  <si>
-    <t>tmpe28d1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
     <t>受託投資機構</t>
   </si>
   <si>
-    <t>_單位數</t>
+    <t>單位數</t>
   </si>
   <si>
     <t>票面價額(單位淨值）</t>
@@ -325,28 +328,25 @@
     <t>世界礦業</t>
   </si>
   <si>
-    <t>台北富邦銀行 古亭分行</t>
-  </si>
-  <si>
-    <t>保誠證券投資 信託公司</t>
-  </si>
-  <si>
-    <t>元大證券投資 信託公司，</t>
-  </si>
-  <si>
-    <t>元大證券投資 信託公司</t>
-  </si>
-  <si>
-    <t>國泰世華銀行 古亭分行</t>
-  </si>
-  <si>
-    <t>台北富邦銀行 襄陽分行</t>
-  </si>
-  <si>
-    <t>安泰證券信託 投資公司</t>
-  </si>
-  <si>
-    <t>星辰銀行大安 分行</t>
+    <t>台北富邦銀行古亭分行</t>
+  </si>
+  <si>
+    <t>保誠證券投資信託公司</t>
+  </si>
+  <si>
+    <t>元大證券投資信託公司</t>
+  </si>
+  <si>
+    <t>國泰世華銀行古亭分行</t>
+  </si>
+  <si>
+    <t>台北富邦銀行襄陽分行</t>
+  </si>
+  <si>
+    <t>安泰證券信託投資公司</t>
+  </si>
+  <si>
+    <t>星辰銀行大安分行</t>
   </si>
   <si>
     <t>台北富邦銀行</t>
@@ -355,7 +355,7 @@
     <t>5*0.81</t>
   </si>
   <si>
-    <t>^ 11,133</t>
+    <t>11133</t>
   </si>
   <si>
     <t>名</t>
@@ -373,25 +373,22 @@
     <t>人</t>
   </si>
   <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寳、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寳古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>m:新臺幣 元）</t>
+    <t>m:新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -756,13 +753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,109 +781,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1073</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>650</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="M4" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>1073</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -904,25 +1006,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -930,25 +1032,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>105.37</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -956,25 +1058,25 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>105.37</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -992,16 +1094,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1009,16 +1111,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1036,22 +1138,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1059,16 +1161,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1080,16 +1182,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1101,16 +1203,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1122,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>3641</v>
@@ -1145,16 +1247,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1166,16 +1268,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1187,16 +1289,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1208,16 +1310,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1229,16 +1331,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1250,16 +1352,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1271,16 +1373,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1292,16 +1394,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1313,16 +1415,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1334,16 +1436,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1355,20 +1457,20 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1376,16 +1478,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1397,16 +1499,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2">
         <v>15595.81</v>
@@ -1430,43 +1532,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1474,10 +1576,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>556</v>
@@ -1486,28 +1588,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>1709</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>68</v>
@@ -1518,10 +1620,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>438</v>
@@ -1530,28 +1632,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2">
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1709</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>69</v>
@@ -1562,10 +1664,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>1912</v>
@@ -1574,28 +1676,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>1709</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>71</v>
@@ -1606,10 +1708,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>459</v>
@@ -1618,28 +1720,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2">
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>1709</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>72</v>
@@ -1650,10 +1752,10 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>625</v>
@@ -1662,28 +1764,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2">
         <v>6250</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>1709</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>73</v>
@@ -1704,25 +1806,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1730,13 +1832,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>20.251</v>
@@ -1745,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
         <v>8341</v>
@@ -1756,13 +1858,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>13465</v>
@@ -1771,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2">
         <v>134650</v>
@@ -1782,13 +1884,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1797,7 +1899,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2">
         <v>12794</v>
@@ -1808,10 +1910,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>104</v>
@@ -1823,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2">
         <v>57322</v>
@@ -1834,10 +1936,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>104</v>
@@ -1849,7 +1951,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2">
         <v>184215</v>
@@ -1860,10 +1962,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>105</v>
@@ -1875,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2">
         <v>81041</v>
@@ -1886,10 +1988,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>106</v>
@@ -1901,7 +2003,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2">
         <v>52320</v>
@@ -1912,13 +2014,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2">
         <v>35.94</v>
@@ -1927,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H9" s="2">
         <v>10850</v>
@@ -1938,10 +2040,10 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>105</v>
@@ -1953,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2">
         <v>32431</v>
@@ -1964,10 +2066,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>105</v>
@@ -1979,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2">
         <v>15407</v>
@@ -1990,13 +2092,13 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2">
         <v>18.627</v>
@@ -2005,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2">
         <v>5623</v>
@@ -2016,10 +2118,10 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>107</v>
@@ -2031,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2">
         <v>62594</v>
@@ -2042,10 +2144,10 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>108</v>
@@ -2057,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2">
         <v>154225</v>
@@ -2068,13 +2170,13 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>110</v>
@@ -2083,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2">
         <v>37401</v>
@@ -2094,13 +2196,13 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2">
         <v>15517</v>
@@ -2109,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2">
         <v>6391</v>
@@ -2120,13 +2222,13 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2">
         <v>27.03</v>
@@ -2135,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>111</v>
@@ -2146,13 +2248,13 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2">
         <v>34.38</v>
@@ -2161,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H18" s="2">
         <v>10379</v>
@@ -2172,13 +2274,13 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2">
         <v>48.131</v>
@@ -2187,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H19" s="2">
         <v>14530</v>
@@ -2198,10 +2300,10 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>109</v>
@@ -2213,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H20" s="2">
         <v>12960</v>
@@ -2224,13 +2326,13 @@
         <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2239,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H21" s="2">
         <v>9865</v>
@@ -2275,7 +2377,7 @@
         <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2283,14 +2385,14 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2300,22 +2402,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
+++ b/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -64,120 +64,90 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺南市麻豆區安業段01050000地號</t>
+  </si>
+  <si>
     <t>臺北市大安區龍泉段二小段08650000地號</t>
   </si>
   <si>
-    <t>臺南市麻豆區安業段01050000地號</t>
-  </si>
-  <si>
-    <t>36分之J</t>
-  </si>
-  <si>
     <t>6分之1</t>
   </si>
   <si>
     <t>36分之1</t>
   </si>
   <si>
+    <t>李薰楓</t>
+  </si>
+  <si>
+    <t>45年11月</t>
+  </si>
+  <si>
+    <t>74年1月</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(購買）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
     <t>陳節如</t>
   </si>
   <si>
-    <t>李薰楓</t>
+    <t>tmpe28d1</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段二小段08827000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>89年9月</t>
   </si>
   <si>
-    <t>45年11月</t>
-  </si>
-  <si>
-    <t>74年1月</t>
-  </si>
-  <si>
-    <t>(購買）</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-17</t>
-  </si>
-  <si>
-    <t>tmpe28d1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段二小段08827000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>74年2月</t>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國轉標示及編號</t>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總瀨</t>
-  </si>
-  <si>
     <t>中華郵政股份有限公司師大郵局</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行襄陽分行</t>
   </si>
   <si>
@@ -208,9 +178,6 @@
     <t>台北富邦商業銀行仁愛分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -220,9 +187,6 @@
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -241,12 +205,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>中鋼</t>
-  </si>
-  <si>
     <t>大同</t>
   </si>
   <si>
@@ -259,30 +217,15 @@
     <t>台紙</t>
   </si>
   <si>
-    <t>5560</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>德利資源</t>
   </si>
   <si>
+    <t>台北富邦銀行古亭分行</t>
+  </si>
+  <si>
     <t>保誠高科技</t>
   </si>
   <si>
@@ -328,9 +271,6 @@
     <t>世界礦業</t>
   </si>
   <si>
-    <t>台北富邦銀行古亭分行</t>
-  </si>
-  <si>
     <t>保誠證券投資信託公司</t>
   </si>
   <si>
@@ -358,37 +298,22 @@
     <t>11133</t>
   </si>
   <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
     <t>(九）珠寳古董字畫及#</t>
   </si>
   <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>m:新臺幣元）</t>
+  </si>
+  <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
     <t>項</t>
   </si>
   <si>
     <t>件</t>
-  </si>
-  <si>
-    <t>m:新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -753,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,43 +727,49 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1073</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="M2" s="2">
         <v>1709</v>
@@ -847,45 +778,51 @@
         <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>8.83333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>53</v>
+        <v>650</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="M3" s="2">
         <v>1709</v>
@@ -894,21 +831,27 @@
         <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>108.333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>650</v>
+        <v>1073</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -917,22 +860,22 @@
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="M4" s="2">
         <v>1709</v>
@@ -941,54 +884,13 @@
         <v>30</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1073</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1709</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2">
-        <v>17</v>
+      <c r="P4" s="2">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>29.8055555555556</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +900,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1008,75 +910,49 @@
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>105.37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>105.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2">
-        <v>105.37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1086,41 +962,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +989,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1138,382 +997,359 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>102979</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>102979</v>
+        <v>349361</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>349361</v>
+        <v>405301</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>3641</v>
+      </c>
       <c r="G4" s="2">
-        <v>405301</v>
+        <v>109927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
-        <v>3641</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>109927</v>
+        <v>15856</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>15856</v>
+        <v>2392131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>2392131</v>
+        <v>1695600</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>1695600</v>
+        <v>1761476</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1761476</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>7032</v>
+        <v>561697</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>561697</v>
+        <v>628733</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>628733</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>92</v>
+        <v>1348595</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>1348595</v>
+        <v>7499116</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>7499116</v>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>69</v>
+      <c r="G16" s="2">
+        <v>37026</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15595.81</v>
+      </c>
       <c r="G17" s="2">
-        <v>37026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>61</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2">
-        <v>15595.81</v>
-      </c>
-      <c r="G18" s="2">
         <v>470806</v>
       </c>
     </row>
@@ -1524,7 +1360,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1538,16 +1374,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1573,37 +1409,37 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
-        <v>556</v>
+        <v>438</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4380</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>1709</v>
@@ -1612,42 +1448,42 @@
         <v>30</v>
       </c>
       <c r="N2" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
-        <v>438</v>
+        <v>1912</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
-        <v>4380</v>
+        <v>19120</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1709</v>
@@ -1656,42 +1492,42 @@
         <v>30</v>
       </c>
       <c r="N3" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
-        <v>1912</v>
+        <v>459</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>19120</v>
+        <v>4590</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>1709</v>
@@ -1700,42 +1536,42 @@
         <v>30</v>
       </c>
       <c r="N4" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
-        <v>459</v>
+        <v>625</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
-        <v>4590</v>
+        <v>6250</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>1709</v>
@@ -1744,50 +1580,6 @@
         <v>30</v>
       </c>
       <c r="N5" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>73</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
-        <v>625</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6250</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1709</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2">
         <v>73</v>
       </c>
     </row>
@@ -1798,7 +1590,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1806,544 +1598,518 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20.251</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="H1" s="1">
+        <v>8341</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
-        <v>20.251</v>
+        <v>13465</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2">
-        <v>8341</v>
+        <v>134650</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
-        <v>13465</v>
+        <v>1279.4</v>
       </c>
       <c r="F3" s="2">
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2">
-        <v>134650</v>
+        <v>12794</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
-        <v>1279.4</v>
+        <v>5732.2</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2">
-        <v>12794</v>
+        <v>57322</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
-        <v>5732.2</v>
+        <v>18421.5</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2">
-        <v>57322</v>
+        <v>184215</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
-        <v>18421.5</v>
+        <v>8104.1</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2">
-        <v>184215</v>
+        <v>81041</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
-        <v>8104.1</v>
+        <v>5232</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2">
-        <v>81041</v>
+        <v>52320</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2">
-        <v>5232</v>
+        <v>35.94</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
-        <v>52320</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2">
-        <v>35.94</v>
+        <v>107.429</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
-        <v>10850</v>
+        <v>32431</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
-        <v>107.429</v>
+        <v>37.408</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2">
-        <v>32431</v>
+        <v>15407</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2">
-        <v>37.408</v>
+        <v>18.627</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2">
-        <v>15407</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2">
-        <v>18.627</v>
+        <v>6259.39</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2">
-        <v>5623</v>
+        <v>62594</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2">
-        <v>6259.39</v>
+        <v>374.46</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H13" s="2">
-        <v>62594</v>
+        <v>154225</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="2">
-        <v>374.46</v>
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2">
-        <v>154225</v>
+        <v>37401</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15517</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2">
-        <v>37401</v>
+        <v>6391</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2">
-        <v>15517</v>
+        <v>27.03</v>
       </c>
       <c r="F16" s="2">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="2">
-        <v>6391</v>
+        <v>56</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2">
-        <v>27.03</v>
+        <v>34.38</v>
       </c>
       <c r="F17" s="2">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>111</v>
+        <v>55</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10379</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2">
-        <v>34.38</v>
+        <v>48.131</v>
       </c>
       <c r="F18" s="2">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2">
-        <v>10379</v>
+        <v>14530</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2">
-        <v>48.131</v>
+        <v>42.92</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H19" s="2">
-        <v>14530</v>
+        <v>12960</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2">
-        <v>42.92</v>
+        <v>32.68</v>
       </c>
       <c r="F20" s="2">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H20" s="2">
-        <v>12960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>118</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="2">
-        <v>32.68</v>
-      </c>
-      <c r="F21" s="2">
-        <v>10</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="2">
         <v>9865</v>
       </c>
     </row>
@@ -2354,7 +2120,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2362,62 +2128,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>125</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
+++ b/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -70,33 +70,39 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區龍泉段二小段08650000地號</t>
+  </si>
+  <si>
     <t>臺南市麻豆區安業段01050000地號</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段二小段08650000地號</t>
+    <t>36分之1</t>
   </si>
   <si>
     <t>6分之1</t>
   </si>
   <si>
-    <t>36分之1</t>
+    <t>陳節如</t>
   </si>
   <si>
     <t>李薰楓</t>
   </si>
   <si>
+    <t>89年9月</t>
+  </si>
+  <si>
     <t>45年11月</t>
   </si>
   <si>
     <t>74年1月</t>
   </si>
   <si>
+    <t>(購買）</t>
+  </si>
+  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>(購買）</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -109,9 +115,6 @@
     <t>2011-11-17</t>
   </si>
   <si>
-    <t>陳節如</t>
-  </si>
-  <si>
     <t>tmpe28d1</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
     <t>全部</t>
   </si>
   <si>
-    <t>89年9月</t>
-  </si>
-  <si>
     <t>74年2月</t>
   </si>
   <si>
@@ -205,6 +205,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>中鋼</t>
+  </si>
+  <si>
     <t>大同</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
   </si>
   <si>
     <t>台紙</t>
+  </si>
+  <si>
+    <t>5560</t>
   </si>
   <si>
     <t>stock</t>
@@ -678,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,13 +742,13 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>53</v>
+        <v>1073</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -751,145 +757,198 @@
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>1709</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.166666666666667</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Q2" s="2">
-        <v>8.83333333333333</v>
+        <v>29.8055555555556</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>650</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>1709</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.166666666666667</v>
       </c>
       <c r="Q3" s="2">
-        <v>108.333333333333</v>
+        <v>8.83333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>1073</v>
+        <v>650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>1709</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>108.333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1073</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="2">
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>0.0277777777777778</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>29.8055555555556</v>
       </c>
     </row>
@@ -900,59 +959,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1">
-        <v>105.37</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>105.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>105.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>105.37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>105.37</v>
       </c>
     </row>
   </sheetData>
@@ -962,13 +1128,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -979,6 +1145,23 @@
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -989,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1006,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1015,31 +1198,31 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>349361</v>
+        <v>102979</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -1048,16 +1231,16 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>405301</v>
+        <v>349361</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>43</v>
@@ -1066,21 +1249,19 @@
         <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3641</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>109927</v>
+        <v>405301</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
@@ -1089,82 +1270,84 @@
         <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3641</v>
+      </c>
       <c r="G5" s="2">
-        <v>15856</v>
+        <v>109927</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>2392131</v>
+        <v>15856</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1695600</v>
+        <v>2392131</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>1761476</v>
+        <v>1695600</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>45</v>
@@ -1173,43 +1356,43 @@
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>7032</v>
+        <v>1761476</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>561697</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>40</v>
@@ -1218,19 +1401,19 @@
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>628733</v>
+        <v>561697</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
@@ -1239,19 +1422,19 @@
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>92</v>
+        <v>628733</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>40</v>
@@ -1260,96 +1443,117 @@
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>1348595</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>7499116</v>
+        <v>1348595</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>57</v>
+      <c r="G15" s="2">
+        <v>7499116</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>37026</v>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>37026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
         <v>15595.81</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>470806</v>
       </c>
     </row>
@@ -1360,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1409,177 +1613,221 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>556</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2">
-        <v>438</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4380</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>1709</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>438</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4380</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2">
-        <v>1912</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2">
-        <v>19120</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>1709</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1912</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2">
+        <v>19120</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2">
-        <v>459</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4590</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>1709</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>459</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4590</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2">
-        <v>625</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6250</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>1709</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>625</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6250</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="2">
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1709</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="2">
         <v>73</v>
       </c>
     </row>
@@ -1590,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1598,13 +1846,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>20.251</v>
@@ -1621,45 +1869,45 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
-        <v>13465</v>
+        <v>20.251</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
-        <v>134650</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
-        <v>1279.4</v>
+        <v>13465</v>
       </c>
       <c r="F3" s="2">
         <v>10</v>
@@ -1668,24 +1916,24 @@
         <v>41</v>
       </c>
       <c r="H3" s="2">
-        <v>12794</v>
+        <v>134650</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2">
-        <v>5732.2</v>
+        <v>1279.4</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
@@ -1694,24 +1942,24 @@
         <v>41</v>
       </c>
       <c r="H4" s="2">
-        <v>57322</v>
+        <v>12794</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
-        <v>18421.5</v>
+        <v>5732.2</v>
       </c>
       <c r="F5" s="2">
         <v>10</v>
@@ -1720,24 +1968,24 @@
         <v>41</v>
       </c>
       <c r="H5" s="2">
-        <v>184215</v>
+        <v>57322</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
-        <v>8104.1</v>
+        <v>18421.5</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
@@ -1746,24 +1994,24 @@
         <v>41</v>
       </c>
       <c r="H6" s="2">
-        <v>81041</v>
+        <v>184215</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2">
-        <v>5232</v>
+        <v>8104.1</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
@@ -1772,50 +2020,50 @@
         <v>41</v>
       </c>
       <c r="H7" s="2">
-        <v>52320</v>
+        <v>81041</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2">
-        <v>35.94</v>
+        <v>5232</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2">
-        <v>10850</v>
+        <v>52320</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2">
-        <v>107.429</v>
+        <v>35.94</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -1824,128 +2072,128 @@
         <v>55</v>
       </c>
       <c r="H9" s="2">
-        <v>32431</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2">
-        <v>37.408</v>
+        <v>107.429</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
-        <v>15407</v>
+        <v>32431</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2">
-        <v>18.627</v>
+        <v>37.408</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2">
-        <v>5623</v>
+        <v>15407</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2">
-        <v>6259.39</v>
+        <v>18.627</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2">
-        <v>62594</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2">
-        <v>374.46</v>
+        <v>6259.39</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2">
-        <v>154225</v>
+        <v>62594</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="E14" s="2">
+        <v>374.46</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
@@ -1954,24 +2202,24 @@
         <v>56</v>
       </c>
       <c r="H14" s="2">
-        <v>37401</v>
+        <v>154225</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="2">
-        <v>15517</v>
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -1980,24 +2228,24 @@
         <v>56</v>
       </c>
       <c r="H15" s="2">
-        <v>6391</v>
+        <v>37401</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2">
-        <v>27.03</v>
+        <v>15517</v>
       </c>
       <c r="F16" s="2">
         <v>10</v>
@@ -2005,51 +2253,51 @@
       <c r="G16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>91</v>
+      <c r="H16" s="2">
+        <v>6391</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2">
-        <v>34.38</v>
+        <v>27.03</v>
       </c>
       <c r="F17" s="2">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="2">
-        <v>10379</v>
+        <v>56</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2">
-        <v>48.131</v>
+        <v>34.38</v>
       </c>
       <c r="F18" s="2">
         <v>10</v>
@@ -2058,24 +2306,24 @@
         <v>55</v>
       </c>
       <c r="H18" s="2">
-        <v>14530</v>
+        <v>10379</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2">
-        <v>42.92</v>
+        <v>48.131</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
@@ -2084,24 +2332,24 @@
         <v>55</v>
       </c>
       <c r="H19" s="2">
-        <v>12960</v>
+        <v>14530</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2">
-        <v>32.68</v>
+        <v>42.92</v>
       </c>
       <c r="F20" s="2">
         <v>10</v>
@@ -2110,6 +2358,32 @@
         <v>55</v>
       </c>
       <c r="H20" s="2">
+        <v>12960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>118</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>32.68</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2">
         <v>9865</v>
       </c>
     </row>
@@ -2120,7 +2394,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2128,38 +2402,55 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>125</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
+++ b/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
@@ -9,18 +9,17 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="航空器" sheetId="3" r:id="rId3"/>
-    <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
+    <sheet name="存款" sheetId="3" r:id="rId3"/>
+    <sheet name="股票" sheetId="4" r:id="rId4"/>
+    <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
+    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -127,205 +126,199 @@
     <t>74年2月</t>
   </si>
   <si>
-    <t>幣別</t>
+    <t>building</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司師大郵局</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行襄陽分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行和平分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行城內分行</t>
+  </si>
+  <si>
+    <t>星辰商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永頁分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行古亭分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行仁愛分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>歐元</t>
+  </si>
+  <si>
+    <t>4000000</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>中鋼</t>
+  </si>
+  <si>
+    <t>大同</t>
+  </si>
+  <si>
+    <t>國喬</t>
+  </si>
+  <si>
+    <t>華夏</t>
+  </si>
+  <si>
+    <t>台紙</t>
+  </si>
+  <si>
+    <t>5560</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>德利資源</t>
+  </si>
+  <si>
+    <t>台北富邦銀行古亭分行</t>
+  </si>
+  <si>
+    <t>保誠高科技</t>
+  </si>
+  <si>
+    <t>元大多福</t>
+  </si>
+  <si>
+    <t>元大卓越</t>
+  </si>
+  <si>
+    <t>元大亞太成長</t>
+  </si>
+  <si>
+    <t>匯膂太平洋精典</t>
+  </si>
+  <si>
+    <t>富邦精準</t>
+  </si>
+  <si>
+    <t>具萊德世界礦業</t>
+  </si>
+  <si>
+    <t>安本亞太</t>
+  </si>
+  <si>
+    <t>天達環球能</t>
+  </si>
+  <si>
+    <t>安泰台灣咼股息</t>
+  </si>
+  <si>
+    <t>富達歐洲進取</t>
+  </si>
+  <si>
+    <t>施羅德新歐</t>
+  </si>
+  <si>
+    <t>BR環球資配</t>
+  </si>
+  <si>
+    <t>BR世界礦業</t>
+  </si>
+  <si>
+    <t>世界礦業</t>
+  </si>
+  <si>
+    <t>保誠證券投資信託公司</t>
+  </si>
+  <si>
+    <t>元大證券投資信託公司</t>
+  </si>
+  <si>
+    <t>國泰世華銀行古亭分行</t>
+  </si>
+  <si>
+    <t>台北富邦銀行襄陽分行</t>
+  </si>
+  <si>
+    <t>安泰證券信託投資公司</t>
+  </si>
+  <si>
+    <t>星辰銀行大安分行</t>
+  </si>
+  <si>
+    <t>台北富邦銀行</t>
+  </si>
+  <si>
+    <t>5*0.81</t>
+  </si>
+  <si>
+    <t>11133</t>
+  </si>
+  <si>
+    <t>(九）珠寳古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>m:新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司師大郵局</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行襄陽分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行和平分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行城內分行</t>
-  </si>
-  <si>
-    <t>星辰商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永頁分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行古亭分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行仁愛分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>歐元</t>
-  </si>
-  <si>
-    <t>4000000</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>中鋼</t>
-  </si>
-  <si>
-    <t>大同</t>
-  </si>
-  <si>
-    <t>國喬</t>
-  </si>
-  <si>
-    <t>華夏</t>
-  </si>
-  <si>
-    <t>台紙</t>
-  </si>
-  <si>
-    <t>5560</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>德利資源</t>
-  </si>
-  <si>
-    <t>台北富邦銀行古亭分行</t>
-  </si>
-  <si>
-    <t>保誠高科技</t>
-  </si>
-  <si>
-    <t>元大多福</t>
-  </si>
-  <si>
-    <t>元大卓越</t>
-  </si>
-  <si>
-    <t>元大亞太成長</t>
-  </si>
-  <si>
-    <t>匯膂太平洋精典</t>
-  </si>
-  <si>
-    <t>富邦精準</t>
-  </si>
-  <si>
-    <t>具萊德世界礦業</t>
-  </si>
-  <si>
-    <t>安本亞太</t>
-  </si>
-  <si>
-    <t>天達環球能</t>
-  </si>
-  <si>
-    <t>安泰台灣咼股息</t>
-  </si>
-  <si>
-    <t>富達歐洲進取</t>
-  </si>
-  <si>
-    <t>施羅德新歐</t>
-  </si>
-  <si>
-    <t>BR環球資配</t>
-  </si>
-  <si>
-    <t>BR世界礦業</t>
-  </si>
-  <si>
-    <t>世界礦業</t>
-  </si>
-  <si>
-    <t>保誠證券投資信託公司</t>
-  </si>
-  <si>
-    <t>元大證券投資信託公司</t>
-  </si>
-  <si>
-    <t>國泰世華銀行古亭分行</t>
-  </si>
-  <si>
-    <t>台北富邦銀行襄陽分行</t>
-  </si>
-  <si>
-    <t>安泰證券信託投資公司</t>
-  </si>
-  <si>
-    <t>星辰銀行大安分行</t>
-  </si>
-  <si>
-    <t>台北富邦銀行</t>
-  </si>
-  <si>
-    <t>5*0.81</t>
-  </si>
-  <si>
-    <t>11133</t>
-  </si>
-  <si>
-    <t>(九）珠寳古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>m:新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1034,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -1094,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -1127,50 +1120,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -1180,13 +1129,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1201,13 +1150,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1222,13 +1171,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1243,13 +1192,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1264,13 +1213,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1287,13 +1236,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1308,13 +1257,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -1329,13 +1278,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -1350,13 +1299,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -1371,13 +1320,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1392,13 +1341,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
@@ -1413,13 +1362,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
@@ -1434,13 +1383,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1455,13 +1404,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1476,13 +1425,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -1497,20 +1446,20 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1518,13 +1467,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -1539,13 +1488,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -1562,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -1578,13 +1527,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1616,7 +1565,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1628,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1660,7 +1609,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1672,13 +1621,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1704,7 +1653,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1716,13 +1665,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -1748,7 +1697,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1760,13 +1709,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -1792,7 +1741,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1804,13 +1753,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>6250</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -1836,7 +1785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -1846,13 +1795,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>20.251</v>
@@ -1861,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1">
         <v>8341</v>
@@ -1872,13 +1821,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>20.251</v>
@@ -1887,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
         <v>8341</v>
@@ -1898,13 +1847,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>13465</v>
@@ -1913,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <v>134650</v>
@@ -1924,13 +1873,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1939,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2">
         <v>12794</v>
@@ -1950,13 +1899,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
         <v>5732.2</v>
@@ -1965,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2">
         <v>57322</v>
@@ -1976,13 +1925,13 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>18421.5</v>
@@ -1991,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2">
         <v>184215</v>
@@ -2002,13 +1951,13 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
         <v>8104.1</v>
@@ -2017,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2">
         <v>81041</v>
@@ -2028,13 +1977,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2">
         <v>5232</v>
@@ -2043,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2">
         <v>52320</v>
@@ -2054,13 +2003,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2">
         <v>35.94</v>
@@ -2069,7 +2018,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2">
         <v>10850</v>
@@ -2080,13 +2029,13 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2">
         <v>107.429</v>
@@ -2095,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2">
         <v>32431</v>
@@ -2106,13 +2055,13 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2">
         <v>37.408</v>
@@ -2121,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2">
         <v>15407</v>
@@ -2132,13 +2081,13 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2">
         <v>18.627</v>
@@ -2147,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
         <v>5623</v>
@@ -2158,13 +2107,13 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -2173,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2">
         <v>62594</v>
@@ -2184,13 +2133,13 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2">
         <v>374.46</v>
@@ -2199,7 +2148,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2">
         <v>154225</v>
@@ -2210,22 +2159,22 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2">
         <v>37401</v>
@@ -2236,13 +2185,13 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2">
         <v>15517</v>
@@ -2251,7 +2200,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2">
         <v>6391</v>
@@ -2262,13 +2211,13 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2">
         <v>27.03</v>
@@ -2277,10 +2226,10 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2288,13 +2237,13 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2">
         <v>34.38</v>
@@ -2303,7 +2252,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2">
         <v>10379</v>
@@ -2314,13 +2263,13 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2">
         <v>48.131</v>
@@ -2329,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H19" s="2">
         <v>14530</v>
@@ -2340,13 +2289,13 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2">
         <v>42.92</v>
@@ -2355,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H20" s="2">
         <v>12960</v>
@@ -2366,13 +2315,13 @@
         <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2381,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2">
         <v>9865</v>
@@ -2392,7 +2341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2402,14 +2351,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2419,16 +2368,16 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2436,22 +2385,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
+++ b/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -129,70 +129,76 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司師大郵局</t>
   </si>
   <si>
+    <t>台北富邦商業銀行襄陽分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行和平分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行城內分行</t>
+  </si>
+  <si>
+    <t>星辰商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司永頁分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行古亭分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行仁愛分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>公教優惠儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行襄陽分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行和平分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行城內分行</t>
-  </si>
-  <si>
-    <t>星辰商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司永頁分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行古亭分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行仁愛分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>公教優惠儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>4000000</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中鋼</t>
@@ -1121,13 +1127,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1138,372 +1144,728 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>102979</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>102979</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>349361</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>405301</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>3641</v>
-      </c>
-      <c r="G5" s="2">
         <v>109927</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15856</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
         <v>49</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>15856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>2392131</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1695600</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>1761476</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>7032</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>561697</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>628733</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>1348595</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>7499116</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>4000000</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>37026</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <v>15595.81</v>
-      </c>
-      <c r="G18" s="2">
         <v>470806</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1709</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1527,13 +1889,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1565,7 +1927,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1577,13 +1939,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1609,7 +1971,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1621,13 +1983,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2">
         <v>4380</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1653,7 +2015,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1665,13 +2027,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2">
         <v>19120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -1697,7 +2059,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1709,13 +2071,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2">
         <v>4590</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -1741,7 +2103,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1753,13 +2115,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2">
         <v>6250</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -1795,13 +2157,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1">
         <v>20.251</v>
@@ -1810,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1">
         <v>8341</v>
@@ -1821,13 +2183,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>20.251</v>
@@ -1836,7 +2198,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>8341</v>
@@ -1847,13 +2209,13 @@
         <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>13465</v>
@@ -1862,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2">
         <v>134650</v>
@@ -1873,13 +2235,13 @@
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -1888,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2">
         <v>12794</v>
@@ -1899,13 +2261,13 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>5732.2</v>
@@ -1914,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2">
         <v>57322</v>
@@ -1925,13 +2287,13 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
         <v>18421.5</v>
@@ -1940,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2">
         <v>184215</v>
@@ -1951,13 +2313,13 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>8104.1</v>
@@ -1966,7 +2328,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2">
         <v>81041</v>
@@ -1977,13 +2339,13 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2">
         <v>5232</v>
@@ -1992,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2">
         <v>52320</v>
@@ -2003,13 +2365,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2">
         <v>35.94</v>
@@ -2018,7 +2380,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
         <v>10850</v>
@@ -2029,13 +2391,13 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2">
         <v>107.429</v>
@@ -2044,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
         <v>32431</v>
@@ -2055,13 +2417,13 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2">
         <v>37.408</v>
@@ -2070,7 +2432,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2">
         <v>15407</v>
@@ -2081,13 +2443,13 @@
         <v>107</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2">
         <v>18.627</v>
@@ -2096,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2">
         <v>5623</v>
@@ -2107,13 +2469,13 @@
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -2122,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2">
         <v>62594</v>
@@ -2133,13 +2495,13 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2">
         <v>374.46</v>
@@ -2148,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2">
         <v>154225</v>
@@ -2159,22 +2521,22 @@
         <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2">
         <v>37401</v>
@@ -2185,13 +2547,13 @@
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2">
         <v>15517</v>
@@ -2200,7 +2562,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H16" s="2">
         <v>6391</v>
@@ -2211,13 +2573,13 @@
         <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2">
         <v>27.03</v>
@@ -2226,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2237,13 +2599,13 @@
         <v>113</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2">
         <v>34.38</v>
@@ -2252,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2">
         <v>10379</v>
@@ -2263,13 +2625,13 @@
         <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2">
         <v>48.131</v>
@@ -2278,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H19" s="2">
         <v>14530</v>
@@ -2289,13 +2651,13 @@
         <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2">
         <v>42.92</v>
@@ -2304,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H20" s="2">
         <v>12960</v>
@@ -2315,13 +2677,13 @@
         <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2330,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H21" s="2">
         <v>9865</v>
@@ -2351,14 +2713,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2368,16 +2730,16 @@
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2385,22 +2747,22 @@
         <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
+++ b/legislator/property/output/normal/陳節如_2011-11-17_財產申報表_tmpe28d1.xlsx
@@ -12,14 +12,13 @@
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="基金受益憑證" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -222,57 +221,60 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>德利資源</t>
   </si>
   <si>
+    <t>保誠高科技</t>
+  </si>
+  <si>
+    <t>元大多福</t>
+  </si>
+  <si>
+    <t>元大卓越</t>
+  </si>
+  <si>
+    <t>元大亞太成長</t>
+  </si>
+  <si>
+    <t>匯膂太平洋精典</t>
+  </si>
+  <si>
+    <t>富邦精準</t>
+  </si>
+  <si>
+    <t>具萊德世界礦業</t>
+  </si>
+  <si>
+    <t>安本亞太</t>
+  </si>
+  <si>
+    <t>天達環球能</t>
+  </si>
+  <si>
+    <t>安泰台灣咼股息</t>
+  </si>
+  <si>
+    <t>富達歐洲進取</t>
+  </si>
+  <si>
+    <t>施羅德新歐</t>
+  </si>
+  <si>
+    <t>BR環球資配</t>
+  </si>
+  <si>
+    <t>BR世界礦業</t>
+  </si>
+  <si>
+    <t>世界礦業</t>
+  </si>
+  <si>
     <t>台北富邦銀行古亭分行</t>
   </si>
   <si>
-    <t>保誠高科技</t>
-  </si>
-  <si>
-    <t>元大多福</t>
-  </si>
-  <si>
-    <t>元大卓越</t>
-  </si>
-  <si>
-    <t>元大亞太成長</t>
-  </si>
-  <si>
-    <t>匯膂太平洋精典</t>
-  </si>
-  <si>
-    <t>富邦精準</t>
-  </si>
-  <si>
-    <t>具萊德世界礦業</t>
-  </si>
-  <si>
-    <t>安本亞太</t>
-  </si>
-  <si>
-    <t>天達環球能</t>
-  </si>
-  <si>
-    <t>安泰台灣咼股息</t>
-  </si>
-  <si>
-    <t>富達歐洲進取</t>
-  </si>
-  <si>
-    <t>施羅德新歐</t>
-  </si>
-  <si>
-    <t>BR環球資配</t>
-  </si>
-  <si>
-    <t>BR世界礦業</t>
-  </si>
-  <si>
-    <t>世界礦業</t>
-  </si>
-  <si>
     <t>保誠證券投資信託公司</t>
   </si>
   <si>
@@ -294,37 +296,7 @@
     <t>台北富邦銀行</t>
   </si>
   <si>
-    <t>5*0.81</t>
-  </si>
-  <si>
-    <t>11133</t>
-  </si>
-  <si>
-    <t>(九）珠寳古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>m:新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
 </sst>
 </file>
@@ -2149,47 +2121,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1">
-        <v>20.251</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1">
-        <v>8341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>20.251</v>
@@ -2203,8 +2196,29 @@
       <c r="H2" s="2">
         <v>8341</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>98</v>
       </c>
@@ -2215,7 +2229,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>13465</v>
@@ -2229,8 +2243,29 @@
       <c r="H3" s="2">
         <v>134650</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>99</v>
       </c>
@@ -2241,7 +2276,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2">
         <v>1279.4</v>
@@ -2255,8 +2290,29 @@
       <c r="H4" s="2">
         <v>12794</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -2267,7 +2323,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>5732.2</v>
@@ -2281,8 +2337,29 @@
       <c r="H5" s="2">
         <v>57322</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -2293,7 +2370,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>18421.5</v>
@@ -2307,8 +2384,29 @@
       <c r="H6" s="2">
         <v>184215</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>102</v>
       </c>
@@ -2319,7 +2417,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2">
         <v>8104.1</v>
@@ -2333,8 +2431,29 @@
       <c r="H7" s="2">
         <v>81041</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>103</v>
       </c>
@@ -2345,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2">
         <v>5232</v>
@@ -2359,8 +2478,29 @@
       <c r="H8" s="2">
         <v>52320</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>104</v>
       </c>
@@ -2371,7 +2511,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2">
         <v>35.94</v>
@@ -2385,8 +2525,29 @@
       <c r="H9" s="2">
         <v>10850</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>105</v>
       </c>
@@ -2397,7 +2558,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2">
         <v>107.429</v>
@@ -2411,19 +2572,40 @@
       <c r="H10" s="2">
         <v>32431</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2">
         <v>37.408</v>
@@ -2437,8 +2619,29 @@
       <c r="H11" s="2">
         <v>15407</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>107</v>
       </c>
@@ -2449,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2">
         <v>18.627</v>
@@ -2463,8 +2666,29 @@
       <c r="H12" s="2">
         <v>5623</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>108</v>
       </c>
@@ -2475,7 +2699,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2">
         <v>6259.39</v>
@@ -2489,8 +2713,29 @@
       <c r="H13" s="2">
         <v>62594</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>109</v>
       </c>
@@ -2501,7 +2746,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2">
         <v>374.46</v>
@@ -2515,8 +2760,29 @@
       <c r="H14" s="2">
         <v>154225</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>110</v>
       </c>
@@ -2527,10 +2793,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="E15" s="2">
+        <v>50.81</v>
       </c>
       <c r="F15" s="2">
         <v>10</v>
@@ -2541,19 +2807,40 @@
       <c r="H15" s="2">
         <v>37401</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>111</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2">
         <v>15517</v>
@@ -2567,8 +2854,29 @@
       <c r="H16" s="2">
         <v>6391</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>112</v>
       </c>
@@ -2579,7 +2887,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2">
         <v>27.03</v>
@@ -2590,11 +2898,32 @@
       <c r="G17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="2">
+        <v>11133</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>113</v>
       </c>
@@ -2605,7 +2934,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2">
         <v>34.38</v>
@@ -2619,8 +2948,29 @@
       <c r="H18" s="2">
         <v>10379</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>114</v>
       </c>
@@ -2631,7 +2981,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2">
         <v>48.131</v>
@@ -2645,8 +2995,29 @@
       <c r="H19" s="2">
         <v>14530</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>115</v>
       </c>
@@ -2657,7 +3028,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2">
         <v>42.92</v>
@@ -2671,8 +3042,29 @@
       <c r="H20" s="2">
         <v>12960</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>118</v>
       </c>
@@ -2683,7 +3075,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2">
         <v>32.68</v>
@@ -2697,72 +3089,26 @@
       <c r="H21" s="2">
         <v>9865</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>124</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>125</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>101</v>
+      <c r="I21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1709</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
